--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999516.779225599</v>
+        <v>3997264.699514392</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7178038.596209638</v>
+        <v>7178038.596209637</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>41.35684107511737</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.688337382602</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.17933574607731</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>139.214513896785</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.288263591708</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>50.73003670622381</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.3577258972783</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>134.3002202704819</v>
+        <v>142.3478174606649</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152423</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>45.106837292256</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>177.696569780335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.0280580960838</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,25 +4328,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2866.097597267229</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4519,19 +4519,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>994.2880032601528</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>994.2880032601528</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>994.2880032601528</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2373.501580131336</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.0249360836216</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C7" t="n">
-        <v>142.0249360836216</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4765,10 +4765,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796252</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>786.1136677276232</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>424.0701624477505</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>417.124661698547</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4847,7 +4847,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.9304417640992</v>
+        <v>181.1690503969111</v>
       </c>
       <c r="C10" t="n">
-        <v>556.9942588361923</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>406.8776194238566</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>258.9645258414635</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>112.0745783435531</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1645.778206672847</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W10" t="n">
-        <v>1356.361036635886</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X10" t="n">
-        <v>1128.371485737869</v>
+        <v>362.8175152271508</v>
       </c>
       <c r="Y10" t="n">
-        <v>907.5789065943389</v>
+        <v>362.8175152271508</v>
       </c>
     </row>
     <row r="11">
@@ -5030,55 +5030,55 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832228</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>634.9279362553159</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134625</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5519,19 +5519,19 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745236</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,22 +5829,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6485,7 +6485,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.329716221309553</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440182</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5874149221285734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>618168.7730327633</v>
+        <v>618168.7730327632</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="J2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900059</v>
       </c>
     </row>
     <row r="3">
@@ -26372,28 +26372,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>2.896221193905462e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551187</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319408</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="G4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184271</v>
-      </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-708430.7593078968</v>
+        <v>-708430.7593078971</v>
       </c>
       <c r="C6" t="n">
-        <v>620313.986419696</v>
+        <v>620313.9864196957</v>
       </c>
       <c r="D6" t="n">
-        <v>620313.9864196957</v>
+        <v>620313.9864196964</v>
       </c>
       <c r="E6" t="n">
-        <v>367004.7999469006</v>
+        <v>366970.0620214651</v>
       </c>
       <c r="F6" t="n">
-        <v>692417.2617542562</v>
+        <v>692382.5238288206</v>
       </c>
       <c r="G6" t="n">
-        <v>692417.2617542567</v>
+        <v>692382.5238288204</v>
       </c>
       <c r="H6" t="n">
-        <v>692417.2617542561</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="I6" t="n">
-        <v>692417.2617542563</v>
+        <v>692382.5238288204</v>
       </c>
       <c r="J6" t="n">
-        <v>474886.0593569789</v>
+        <v>474851.321431543</v>
       </c>
       <c r="K6" t="n">
-        <v>692417.2617542564</v>
+        <v>692382.5238288208</v>
       </c>
       <c r="L6" t="n">
-        <v>692417.261754256</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="M6" t="n">
-        <v>607362.2338187443</v>
+        <v>607327.4958933087</v>
       </c>
       <c r="N6" t="n">
-        <v>692417.2617542563</v>
+        <v>692382.5238288209</v>
       </c>
       <c r="O6" t="n">
-        <v>692417.2617542564</v>
+        <v>692382.5238288207</v>
       </c>
       <c r="P6" t="n">
-        <v>692417.2617542561</v>
+        <v>692382.5238288208</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.620276492381828e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>328.3742596033517</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734516</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295091</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>112.923129427043</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805537</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>298.5109320111892</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>91.26811680410444</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548165</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>230.9726715005256</v>
+        <v>222.9250743103427</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833855</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.9189709667722</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.147193099375978e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>253.6713445157994</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32549,25 +32549,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>122.3296324324661</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
